--- a/Phase 1 Documentation/Phase One Time Log.xlsx
+++ b/Phase 1 Documentation/Phase One Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikeblakeman\Desktop\Planr\Planr\Phase 1 Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68ADFC3-861E-4662-956E-18D0ECAF4187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87588D5D-1507-4AFC-8E70-536FB08E3968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7715117C-CDDE-9B45-83D9-FB861F637019}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Uploading documents to the GitHub repo.</t>
+  </si>
+  <si>
+    <t>Presentation Preparation</t>
+  </si>
+  <si>
+    <t>Prepairing for Phase 1 Presentation and sent out Doodle Poll to Supervisory Committee.</t>
   </si>
 </sst>
 </file>
@@ -492,9 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F018FD-0745-894B-9B2D-4C14FB29EDEB}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -557,7 +561,7 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D14" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D16" si="0">C3-B3</f>
         <v>3.125E-2</v>
       </c>
       <c r="E3" t="s">
@@ -801,6 +805,13 @@
       <c r="B15" s="4">
         <v>0.85416666666666663</v>
       </c>
+      <c r="C15" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
       <c r="E15" t="s">
         <v>27</v>
       </c>
@@ -810,6 +821,22 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
+      <c r="B16" s="4">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.8930555555555556</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>7.6388888888889728E-3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -842,12 +869,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1074,15 +1098,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DD56A1-62DB-40DA-8A9C-1449A5DCC1EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783A39A2-890A-424F-9BFC-50B919DF631D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3897f00b-811b-4797-ad7c-5e248ed43fd2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ba9b1d7-fc31-4b63-b17e-76a7ddb588b0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1107,18 +1143,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783A39A2-890A-424F-9BFC-50B919DF631D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DD56A1-62DB-40DA-8A9C-1449A5DCC1EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3897f00b-811b-4797-ad7c-5e248ed43fd2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1ba9b1d7-fc31-4b63-b17e-76a7ddb588b0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Phase 1 Documentation/Phase One Time Log.xlsx
+++ b/Phase 1 Documentation/Phase One Time Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikeblakeman\Desktop\Planr\Planr\Phase 1 Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87588D5D-1507-4AFC-8E70-536FB08E3968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFEC2AF-1278-4D25-B699-1C96012F807E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7715117C-CDDE-9B45-83D9-FB861F637019}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Prepairing for Phase 1 Presentation and sent out Doodle Poll to Supervisory Committee.</t>
+  </si>
+  <si>
+    <t>Gantt Chart work for Project Plan Document.</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F018FD-0745-894B-9B2D-4C14FB29EDEB}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -561,7 +566,7 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D16" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D17" si="0">C3-B3</f>
         <v>3.125E-2</v>
       </c>
       <c r="E3" t="s">
@@ -838,28 +843,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44456</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.8340277777777777</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.87222222222222223</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>3.8194444444444531E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
   </sheetData>
@@ -869,9 +892,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1098,27 +1124,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783A39A2-890A-424F-9BFC-50B919DF631D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DD56A1-62DB-40DA-8A9C-1449A5DCC1EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3897f00b-811b-4797-ad7c-5e248ed43fd2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1ba9b1d7-fc31-4b63-b17e-76a7ddb588b0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1143,9 +1157,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DD56A1-62DB-40DA-8A9C-1449A5DCC1EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783A39A2-890A-424F-9BFC-50B919DF631D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3897f00b-811b-4797-ad7c-5e248ed43fd2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ba9b1d7-fc31-4b63-b17e-76a7ddb588b0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Phase 1 Documentation/Phase One Time Log.xlsx
+++ b/Phase 1 Documentation/Phase One Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikeblakeman\Desktop\Planr\Planr\Phase 1 Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFEC2AF-1278-4D25-B699-1C96012F807E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AB3B3C-F4DE-45D6-8B77-F7BC7FFDD84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7715117C-CDDE-9B45-83D9-FB861F637019}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Gantt Chart work for Project Plan Document.</t>
+  </si>
+  <si>
+    <t>Prototyping UI</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -566,7 +569,7 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D17" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D18" si="0">C3-B3</f>
         <v>3.125E-2</v>
       </c>
       <c r="E3" t="s">
@@ -865,7 +868,25 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>44459</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -892,12 +913,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1124,15 +1142,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DD56A1-62DB-40DA-8A9C-1449A5DCC1EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783A39A2-890A-424F-9BFC-50B919DF631D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3897f00b-811b-4797-ad7c-5e248ed43fd2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ba9b1d7-fc31-4b63-b17e-76a7ddb588b0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1157,18 +1187,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783A39A2-890A-424F-9BFC-50B919DF631D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DD56A1-62DB-40DA-8A9C-1449A5DCC1EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3897f00b-811b-4797-ad7c-5e248ed43fd2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1ba9b1d7-fc31-4b63-b17e-76a7ddb588b0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Phase 1 Documentation/Phase One Time Log.xlsx
+++ b/Phase 1 Documentation/Phase One Time Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikeblakeman\Desktop\Planr\Planr\Phase 1 Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AB3B3C-F4DE-45D6-8B77-F7BC7FFDD84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED27715-EEA8-4B56-AB83-3BA7B1488495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7715117C-CDDE-9B45-83D9-FB861F637019}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7715117C-CDDE-9B45-83D9-FB861F637019}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Prototyping UI</t>
+  </si>
+  <si>
+    <t>COCOMO Model for Project Plan.</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -569,7 +572,7 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D18" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D19" si="0">C3-B3</f>
         <v>3.125E-2</v>
       </c>
       <c r="E3" t="s">
@@ -889,7 +892,25 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>44460</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>8.8194444444444464E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -913,9 +934,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1142,27 +1166,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783A39A2-890A-424F-9BFC-50B919DF631D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DD56A1-62DB-40DA-8A9C-1449A5DCC1EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3897f00b-811b-4797-ad7c-5e248ed43fd2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1ba9b1d7-fc31-4b63-b17e-76a7ddb588b0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1187,9 +1199,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DD56A1-62DB-40DA-8A9C-1449A5DCC1EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783A39A2-890A-424F-9BFC-50B919DF631D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3897f00b-811b-4797-ad7c-5e248ed43fd2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ba9b1d7-fc31-4b63-b17e-76a7ddb588b0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Phase 1 Documentation/Phase One Time Log.xlsx
+++ b/Phase 1 Documentation/Phase One Time Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikeblakeman\Desktop\Planr\Planr\Phase 1 Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blakeman/Documents/Planr/Phase 1 Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED27715-EEA8-4B56-AB83-3BA7B1488495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B746D6-8E47-914F-A566-ADE620C9C856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7715117C-CDDE-9B45-83D9-FB861F637019}"/>
+    <workbookView xWindow="-38640" yWindow="1140" windowWidth="38640" windowHeight="21240" xr2:uid="{7715117C-CDDE-9B45-83D9-FB861F637019}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>COCOMO Model for Project Plan.</t>
+  </si>
+  <si>
+    <t>Phase 1 Presentation</t>
+  </si>
+  <si>
+    <t>Prepare Phase 1 Presentation.</t>
   </si>
 </sst>
 </file>
@@ -508,19 +514,19 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="103.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="103.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44326</v>
       </c>
@@ -561,7 +567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44354</v>
       </c>
@@ -572,7 +578,7 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D19" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D20" si="0">C3-B3</f>
         <v>3.125E-2</v>
       </c>
       <c r="E3" t="s">
@@ -582,7 +588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44417</v>
       </c>
@@ -603,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="4">
         <v>0.90972222222222221</v>
@@ -622,7 +628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44431</v>
       </c>
@@ -643,7 +649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44433</v>
       </c>
@@ -664,7 +670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="4">
         <v>0.5625</v>
@@ -683,7 +689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44434</v>
       </c>
@@ -704,7 +710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44435</v>
       </c>
@@ -725,7 +731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44440</v>
       </c>
@@ -746,7 +752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44443</v>
       </c>
@@ -767,7 +773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44447</v>
       </c>
@@ -788,7 +794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44452</v>
       </c>
@@ -809,7 +815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44455</v>
       </c>
@@ -830,7 +836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4">
         <v>0.88541666666666663</v>
@@ -849,7 +855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44456</v>
       </c>
@@ -870,7 +876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44459</v>
       </c>
@@ -891,7 +897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44460</v>
       </c>
@@ -912,19 +918,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>44466</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10069444444444448</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
     </row>
   </sheetData>
@@ -934,12 +958,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1166,15 +1187,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DD56A1-62DB-40DA-8A9C-1449A5DCC1EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783A39A2-890A-424F-9BFC-50B919DF631D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3897f00b-811b-4797-ad7c-5e248ed43fd2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ba9b1d7-fc31-4b63-b17e-76a7ddb588b0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1199,18 +1232,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783A39A2-890A-424F-9BFC-50B919DF631D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DD56A1-62DB-40DA-8A9C-1449A5DCC1EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3897f00b-811b-4797-ad7c-5e248ed43fd2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1ba9b1d7-fc31-4b63-b17e-76a7ddb588b0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>